--- a/database/orang/sofi/exel_boomber_sofi/F4 Sofi Database Notel [TRANSFER Rutin].xlsx
+++ b/database/orang/sofi/exel_boomber_sofi/F4 Sofi Database Notel [TRANSFER Rutin].xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\aulia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\sofi\exel_boomber_sofi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{84198348-41EC-DC40-A716-352E092782C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C3E31F-863C-4CEB-B3B4-39F3F95094DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -58,10 +56,10 @@
     <t>Asal Daerah</t>
   </si>
   <si>
-    <t>0812-8564-4475</t>
+    <t>bapak yanto</t>
   </si>
   <si>
-    <t>bapak yanto</t>
+    <t>+62 812-8564-4475</t>
   </si>
 </sst>
 </file>
@@ -135,7 +133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -165,6 +163,7 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,19 +385,19 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="7.14453125" style="9" customWidth="1"/>
-    <col min="3" max="4" width="20.08984375" style="9" customWidth="1"/>
-    <col min="5" max="5" width="29.66796875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="18.47265625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="20.08984375" style="9" customWidth="1"/>
+    <col min="1" max="2" width="7.140625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -421,31 +420,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="12">
         <v>44600</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -453,14 +452,14 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -468,14 +467,14 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -483,14 +482,14 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -498,14 +497,14 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -513,14 +512,14 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -528,14 +527,14 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -543,14 +542,14 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -558,14 +557,14 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -576,7 +575,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -586,7 +585,7 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -597,7 +596,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -607,7 +606,7 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -618,7 +617,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -628,7 +627,7 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -639,7 +638,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -648,7 +647,7 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -659,7 +658,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -668,7 +667,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -679,7 +678,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -688,7 +687,7 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -699,7 +698,7 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -708,7 +707,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -719,7 +718,7 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -728,7 +727,7 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -739,7 +738,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -748,7 +747,7 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -759,7 +758,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -768,7 +767,7 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -779,7 +778,7 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -788,7 +787,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -799,7 +798,7 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -808,7 +807,7 @@
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -819,7 +818,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -828,7 +827,7 @@
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -839,7 +838,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -848,7 +847,7 @@
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -859,7 +858,7 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -868,7 +867,7 @@
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -879,7 +878,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -888,7 +887,7 @@
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -899,7 +898,7 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -908,7 +907,7 @@
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -919,7 +918,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -928,7 +927,7 @@
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -939,7 +938,7 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -948,7 +947,7 @@
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -959,7 +958,7 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -968,7 +967,7 @@
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -979,7 +978,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -988,7 +987,7 @@
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -999,7 +998,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -1008,7 +1007,7 @@
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -1019,7 +1018,7 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -1028,7 +1027,7 @@
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -1039,7 +1038,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -1048,7 +1047,7 @@
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -1059,7 +1058,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -1068,7 +1067,7 @@
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -1079,7 +1078,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -1088,7 +1087,7 @@
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
-    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -1099,7 +1098,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -1108,7 +1107,7 @@
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
-    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -1119,7 +1118,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -1128,7 +1127,7 @@
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
-    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -1139,7 +1138,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -1148,7 +1147,7 @@
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
-    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -1159,7 +1158,7 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -1168,7 +1167,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -1179,7 +1178,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1188,7 +1187,7 @@
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1199,7 +1198,7 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1208,7 +1207,7 @@
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1219,7 +1218,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1228,7 +1227,7 @@
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1239,7 +1238,7 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1248,7 +1247,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1259,7 +1258,7 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1268,7 +1267,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
-    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1279,7 +1278,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1288,7 +1287,7 @@
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -1299,7 +1298,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -1308,7 +1307,7 @@
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -1319,7 +1318,7 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -1328,7 +1327,7 @@
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -1339,7 +1338,7 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -1348,7 +1347,7 @@
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
-    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -1359,7 +1358,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -1368,7 +1367,7 @@
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
-    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -1379,7 +1378,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -1388,7 +1387,7 @@
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -1399,7 +1398,7 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -1408,7 +1407,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -1419,7 +1418,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -1428,7 +1427,7 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -1439,7 +1438,7 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -1448,7 +1447,7 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -1459,7 +1458,7 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -1468,7 +1467,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -1479,7 +1478,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -1488,7 +1487,7 @@
       <c r="E111" s="7"/>
       <c r="F111" s="7"/>
     </row>
-    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -1499,7 +1498,7 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -1508,7 +1507,7 @@
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
-    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -1519,7 +1518,7 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -1528,7 +1527,7 @@
       <c r="E115" s="7"/>
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -1539,7 +1538,7 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -1548,7 +1547,7 @@
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
     </row>
-    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -1559,7 +1558,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -1568,7 +1567,7 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
     </row>
-    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -1579,7 +1578,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -1588,7 +1587,7 @@
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
     </row>
-    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -1599,7 +1598,7 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -1608,7 +1607,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
     </row>
-    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -1619,7 +1618,7 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -1628,7 +1627,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
     </row>
-    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -1639,7 +1638,7 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
-    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -1659,7 +1658,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -1668,7 +1667,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -1679,7 +1678,7 @@
       <c r="F130" s="7"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -1688,7 +1687,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
     </row>
-    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -1699,7 +1698,7 @@
       <c r="F132" s="7"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -1708,7 +1707,7 @@
       <c r="E133" s="7"/>
       <c r="F133" s="7"/>
     </row>
-    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -1719,7 +1718,7 @@
       <c r="F134" s="7"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -1728,7 +1727,7 @@
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
     </row>
-    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -1739,7 +1738,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -1748,7 +1747,7 @@
       <c r="E137" s="7"/>
       <c r="F137" s="7"/>
     </row>
-    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -1759,7 +1758,7 @@
       <c r="F138" s="7"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -1768,7 +1767,7 @@
       <c r="E139" s="7"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -1779,7 +1778,7 @@
       <c r="F140" s="7"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -1788,7 +1787,7 @@
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -1799,7 +1798,7 @@
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -1808,7 +1807,7 @@
       <c r="E143" s="7"/>
       <c r="F143" s="7"/>
     </row>
-    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -1819,7 +1818,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -1828,7 +1827,7 @@
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
     </row>
-    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -1839,7 +1838,7 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -1848,7 +1847,7 @@
       <c r="E147" s="7"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -1859,7 +1858,7 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -1868,7 +1867,7 @@
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
     </row>
-    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -1879,7 +1878,7 @@
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -1888,7 +1887,7 @@
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
     </row>
-    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -1899,7 +1898,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -1908,7 +1907,7 @@
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -1919,7 +1918,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -1928,7 +1927,7 @@
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
-    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -1939,7 +1938,7 @@
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -1948,7 +1947,7 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
     </row>
-    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -1959,7 +1958,7 @@
       <c r="F158" s="7"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -1968,7 +1967,7 @@
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
     </row>
-    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -1988,7 +1987,7 @@
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
     </row>
-    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -1999,7 +1998,7 @@
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -2008,7 +2007,7 @@
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
     </row>
-    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="F164" s="7"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -2028,7 +2027,7 @@
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
     </row>
-    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -2039,7 +2038,7 @@
       <c r="F166" s="7"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -2048,7 +2047,7 @@
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
     </row>
-    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="F168" s="7"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -2068,7 +2067,7 @@
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
-    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="F170" s="7"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="E171" s="7"/>
       <c r="F171" s="7"/>
     </row>
-    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>171</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>172</v>
       </c>
@@ -2108,7 +2107,7 @@
       <c r="E173" s="7"/>
       <c r="F173" s="7"/>
     </row>
-    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>173</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>174</v>
       </c>
@@ -2128,7 +2127,7 @@
       <c r="E175" s="7"/>
       <c r="F175" s="7"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>175</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="F176" s="7"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>176</v>
       </c>
@@ -2148,7 +2147,7 @@
       <c r="E177" s="7"/>
       <c r="F177" s="7"/>
     </row>
-    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>177</v>
       </c>
@@ -2159,7 +2158,7 @@
       <c r="F178" s="7"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>178</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
     </row>
-    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>179</v>
       </c>
@@ -2179,7 +2178,7 @@
       <c r="F180" s="7"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>180</v>
       </c>
@@ -2188,7 +2187,7 @@
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
     </row>
-    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>181</v>
       </c>
@@ -2199,7 +2198,7 @@
       <c r="F182" s="7"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>182</v>
       </c>
@@ -2208,7 +2207,7 @@
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
-    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>183</v>
       </c>
@@ -2219,7 +2218,7 @@
       <c r="F184" s="7"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>184</v>
       </c>
@@ -2228,7 +2227,7 @@
       <c r="E185" s="7"/>
       <c r="F185" s="7"/>
     </row>
-    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>185</v>
       </c>
@@ -2239,7 +2238,7 @@
       <c r="F186" s="7"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>186</v>
       </c>
@@ -2248,7 +2247,7 @@
       <c r="E187" s="7"/>
       <c r="F187" s="7"/>
     </row>
-    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>187</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>188</v>
       </c>
@@ -2268,7 +2267,7 @@
       <c r="E189" s="7"/>
       <c r="F189" s="7"/>
     </row>
-    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>189</v>
       </c>
@@ -2279,7 +2278,7 @@
       <c r="F190" s="7"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>190</v>
       </c>
@@ -2288,7 +2287,7 @@
       <c r="E191" s="7"/>
       <c r="F191" s="7"/>
     </row>
-    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>191</v>
       </c>
@@ -2299,7 +2298,7 @@
       <c r="F192" s="7"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>192</v>
       </c>
@@ -2308,7 +2307,7 @@
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
     </row>
-    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>193</v>
       </c>
@@ -2319,7 +2318,7 @@
       <c r="F194" s="7"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>194</v>
       </c>
@@ -2328,7 +2327,7 @@
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>195</v>
       </c>
@@ -2339,7 +2338,7 @@
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>196</v>
       </c>
@@ -2348,7 +2347,7 @@
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
-    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>197</v>
       </c>
@@ -2359,7 +2358,7 @@
       <c r="F198" s="7"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>198</v>
       </c>
@@ -2368,7 +2367,7 @@
       <c r="E199" s="7"/>
       <c r="F199" s="7"/>
     </row>
-    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>199</v>
       </c>
@@ -2379,7 +2378,7 @@
       <c r="F200" s="7"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>200</v>
       </c>
@@ -2388,7 +2387,7 @@
       <c r="E201" s="7"/>
       <c r="F201" s="7"/>
     </row>
-    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>201</v>
       </c>
@@ -2399,7 +2398,7 @@
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>202</v>
       </c>
@@ -2408,7 +2407,7 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>203</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
         <v>204</v>
       </c>
@@ -2428,7 +2427,7 @@
       <c r="E205" s="7"/>
       <c r="F205" s="7"/>
     </row>
-    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
         <v>205</v>
       </c>
@@ -2439,7 +2438,7 @@
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
         <v>206</v>
       </c>
@@ -2448,7 +2447,7 @@
       <c r="E207" s="7"/>
       <c r="F207" s="7"/>
     </row>
-    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
         <v>207</v>
       </c>
@@ -2459,7 +2458,7 @@
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
         <v>208</v>
       </c>
@@ -2468,7 +2467,7 @@
       <c r="E209" s="7"/>
       <c r="F209" s="7"/>
     </row>
-    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
         <v>209</v>
       </c>
@@ -2479,7 +2478,7 @@
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
         <v>210</v>
       </c>
@@ -2488,823 +2487,824 @@
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
     </row>
-    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C212" s="11"/>
     </row>
-    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C213" s="11"/>
     </row>
-    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C214" s="11"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C215" s="11"/>
     </row>
-    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C216" s="11"/>
     </row>
-    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C217" s="11"/>
     </row>
-    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C218" s="11"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C219" s="11"/>
     </row>
-    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C220" s="11"/>
     </row>
-    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C224" s="11"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="3" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>